--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -51,9 +51,6 @@
     <t>Нажать кнопку "register"</t>
   </si>
   <si>
-    <t>Ожидаемый результа:</t>
-  </si>
-  <si>
     <t>Пользователь зарегистрирован, произошел переход на страницу Log in</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>User "111@111.ru" есть в БД</t>
   </si>
   <si>
-    <t>Заполнить поля "Username" данными, которые соответствуют пользователю гкоторый арантированно есть в БД</t>
-  </si>
-  <si>
     <t>Заполнить поля "Password", "Password confirmation" валидными данными</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>Заполнить поля "Username" валидными данными</t>
   </si>
   <si>
-    <t>Заполнить поля "Password"и "Password confirmation" нетожденственными значениями</t>
-  </si>
-  <si>
     <t>Пользователь не зарегистрирован, редиректа нет, появилась надпись "The two password fields didn’t match."</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>Тест 15</t>
   </si>
   <si>
-    <t>Пользователь не зарегистрирован, над полем  "Password confirmation" появиляется форм-контроль на наличие символа @</t>
-  </si>
-  <si>
     <t>Тест 16</t>
   </si>
   <si>
@@ -365,9 +353,6 @@
     <t>Тесткейсы для тестирования сайта https://cypress-tourism-app.herokuapp.com/</t>
   </si>
   <si>
-    <t>Поле "Username" оставить незаполненым</t>
-  </si>
-  <si>
     <t>Заполнить полe "Email address" некорректным эмейлом без имени почты перед @</t>
   </si>
   <si>
@@ -390,6 +375,21 @@
   </si>
   <si>
     <t>Пользователь не залогинился, появилась надпись Please enter a correct username and password. Note that both fields may be case-sensitive."</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Username" данными, которые соответствуют пользователю, который гарантированно есть в БД</t>
+  </si>
+  <si>
+    <t>Поле "Username" оставить незаполненным</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Password"и "Password confirmation" нетождественными значениями</t>
+  </si>
+  <si>
+    <t>Пользователь не зарегистрирован, над полем  "Password confirmation" появляется форм-контроль на наличие символа @</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат:</t>
   </si>
 </sst>
 </file>
@@ -905,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A243" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A151" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -920,7 +920,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1004,16 +1004,16 @@
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1092,16 +1092,16 @@
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1166,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1176,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1192,16 +1192,16 @@
     <row r="31" spans="1:4">
       <c r="A31" s="7"/>
       <c r="B31" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1264,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1274,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1290,16 +1290,16 @@
     <row r="42" spans="1:4">
       <c r="A42" s="7"/>
       <c r="B42" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1362,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1372,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1388,16 +1388,16 @@
     <row r="53" spans="1:4" ht="30">
       <c r="A53" s="7"/>
       <c r="B53" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1460,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1470,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1486,16 +1486,16 @@
     <row r="64" spans="1:4">
       <c r="A64" s="7"/>
       <c r="B64" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1558,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1568,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1584,16 +1584,16 @@
     <row r="75" spans="1:4">
       <c r="A75" s="7"/>
       <c r="B75" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1656,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1666,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1676,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1692,16 +1692,16 @@
     <row r="87" spans="1:4">
       <c r="A87" s="7"/>
       <c r="B87" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1774,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1784,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1800,16 +1800,16 @@
     <row r="99" spans="1:4">
       <c r="A99" s="7"/>
       <c r="B99" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1872,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1882,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1898,16 +1898,16 @@
     <row r="110" spans="1:4" ht="30">
       <c r="A110" s="7"/>
       <c r="B110" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,7 +1970,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -1980,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -1996,26 +1996,26 @@
     <row r="121" spans="1:4" ht="30">
       <c r="A121" s="10"/>
       <c r="B121" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="30">
       <c r="A122" s="11"/>
       <c r="B122" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2088,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2104,16 +2104,16 @@
     <row r="133" spans="1:4" ht="30">
       <c r="A133" s="7"/>
       <c r="B133" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2176,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2202,16 +2202,16 @@
     <row r="144" spans="1:4" ht="30">
       <c r="A144" s="7"/>
       <c r="B144" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2300,16 +2300,16 @@
     <row r="155" spans="1:4" ht="30">
       <c r="A155" s="7"/>
       <c r="B155" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2372,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2398,16 +2398,16 @@
     <row r="166" spans="1:4" ht="30">
       <c r="A166" s="7"/>
       <c r="B166" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="8" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2470,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2480,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2496,16 +2496,16 @@
     <row r="177" spans="1:4">
       <c r="A177" s="7"/>
       <c r="B177" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="2"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2568,7 +2568,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2578,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2594,16 +2594,16 @@
     <row r="188" spans="1:4" ht="30">
       <c r="A188" s="7"/>
       <c r="B188" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2666,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -2676,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>8</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -2716,7 +2716,7 @@
         <v>9</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -2726,22 +2726,22 @@
         <v>10</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="30">
       <c r="A203" s="7"/>
       <c r="B203" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -2796,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -2806,22 +2806,22 @@
         <v>4</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="30">
       <c r="A212" s="7"/>
       <c r="B212" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="2"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -2884,7 +2884,7 @@
         <v>4</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -2894,22 +2894,22 @@
         <v>5</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="7"/>
       <c r="B222" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="2"/>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -2972,7 +2972,7 @@
         <v>4</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -2982,22 +2982,22 @@
         <v>5</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="7"/>
       <c r="B232" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="2"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3050,7 +3050,7 @@
         <v>3</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3060,7 +3060,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3070,22 +3070,22 @@
         <v>5</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="30">
       <c r="A242" s="7"/>
       <c r="B242" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="2"/>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3138,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3148,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3158,22 +3158,22 @@
         <v>5</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="30">
       <c r="A252" s="7"/>
       <c r="B252" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="2"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3226,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -3246,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -3256,7 +3256,7 @@
         <v>6</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -3266,7 +3266,7 @@
         <v>7</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="30">
@@ -3276,7 +3276,7 @@
         <v>8</v>
       </c>
       <c r="D264" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -3286,7 +3286,7 @@
         <v>9</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -3296,17 +3296,17 @@
         <v>10</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="7"/>
       <c r="B267" s="5" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
